--- a/xlsx/country_comparison/likely_solidarity_by_info_solidarity.xlsx
+++ b/xlsx/country_comparison/likely_solidarity_by_info_solidarity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,9 +26,15 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">info_solidarityTRUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
   </si>
   <si>
@@ -54,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -404,173 +413,229 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0782556663163499</v>
+        <v>0.0771135467567935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587131893893503</v>
+        <v>0.0580016853051782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0977981432433496</v>
+        <v>0.0962254082084088</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0825944663024474</v>
+        <v>0.0825944663024475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0547133371389898</v>
+        <v>0.0547133371389899</v>
       </c>
       <c r="D3" t="n">
         <v>0.110475595465905</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0495344129192725</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0118154213608932</v>
+        <v>-0.0118154213608933</v>
       </c>
       <c r="D4" t="n">
         <v>0.110884247199438</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0485341087871784</v>
+        <v>0.0485341087871785</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00960239297963127</v>
+        <v>-0.00960239297963114</v>
       </c>
       <c r="D5" t="n">
         <v>0.106670610553988</v>
       </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.144337371881726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0728607170371897</v>
+        <v>0.0728607170371896</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215814026726263</v>
+        <v>0.215814026726262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.114091294217116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0293215892202034</v>
+        <v>0.0293215892202032</v>
       </c>
       <c r="D7" t="n">
         <v>0.198860999214029</v>
       </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>0.139448173442152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0580077114529698</v>
+        <v>0.0580077114529699</v>
       </c>
       <c r="D8" t="n">
         <v>0.220888635431334</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>0.045793296445488</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0225196456449662</v>
+        <v>-0.0225196456449661</v>
       </c>
       <c r="D9" t="n">
         <v>0.114106238535942</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0390199838334039</v>
+        <v>0.0390199838334037</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0505289947955081</v>
+        <v>-0.0505289947955083</v>
       </c>
       <c r="D10" t="n">
         <v>0.128568962462316</v>
       </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0174508171302945</v>
+        <v>0.0174508171302944</v>
       </c>
       <c r="C11" t="n">
         <v>-0.0152316927645079</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0501333270250969</v>
+        <v>0.0501333270250967</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.057267193434598</v>
+        <v>0.0745576198116124</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0101649514768753</v>
+        <v>0.011015047693166</v>
       </c>
       <c r="D12" t="n">
-        <v>0.124699338346071</v>
+        <v>0.138100191930059</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
+        <v>0.057267193434598</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.010164951476875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.124699338346071</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.100634993909625</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.06464640099532</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.136623586823931</v>
+      <c r="C14" t="n">
+        <v>0.0646464009953198</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.13662358682393</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/likely_solidarity_by_info_solidarity.xlsx
+++ b/xlsx/country_comparison/likely_solidarity_by_info_solidarity.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0771135467567935</v>
+        <v>0.0775236584228791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0580016853051782</v>
+        <v>0.0587637933184519</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0962254082084088</v>
+        <v>0.0962835235273064</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -439,13 +439,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0825944663024475</v>
+        <v>0.0825944663024482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0547133371389899</v>
+        <v>0.0547133371389904</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110475595465905</v>
+        <v>0.110475595465906</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,10 +456,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0495344129192725</v>
+        <v>0.0495344129192724</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0118154213608933</v>
+        <v>-0.0118154213608932</v>
       </c>
       <c r="D4" t="n">
         <v>0.110884247199438</v>
@@ -476,7 +476,7 @@
         <v>0.0485341087871785</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00960239297963114</v>
+        <v>-0.00960239297963123</v>
       </c>
       <c r="D5" t="n">
         <v>0.106670610553988</v>
@@ -493,10 +493,10 @@
         <v>0.144337371881726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0728607170371896</v>
+        <v>0.0728607170371897</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215814026726262</v>
+        <v>0.215814026726263</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -510,7 +510,7 @@
         <v>0.114091294217116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0293215892202032</v>
+        <v>0.0293215892202031</v>
       </c>
       <c r="D7" t="n">
         <v>0.198860999214029</v>
@@ -524,13 +524,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.139448173442152</v>
+        <v>0.139448173442151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0580077114529699</v>
+        <v>0.0580077114529696</v>
       </c>
       <c r="D8" t="n">
-        <v>0.220888635431334</v>
+        <v>0.220888635431333</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.045793296445488</v>
+        <v>0.0457932964454881</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0225196456449661</v>
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0390199838334037</v>
+        <v>0.039019983833404</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0505289947955083</v>
+        <v>-0.0505289947955081</v>
       </c>
       <c r="D10" t="n">
         <v>0.128568962462316</v>
@@ -575,13 +575,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0174508171302944</v>
+        <v>0.0174473111262245</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0152316927645079</v>
+        <v>-0.0152238153386416</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0501333270250967</v>
+        <v>0.0501184375910905</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0745576198116124</v>
+        <v>0.0793351577642075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.011015047693166</v>
+        <v>0.0215888870035115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.138100191930059</v>
+        <v>0.137081428524904</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -609,7 +609,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.057267193434598</v>
+        <v>0.0572671934345981</v>
       </c>
       <c r="C13" t="n">
         <v>-0.010164951476875</v>
@@ -626,13 +626,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100634993909625</v>
+        <v>0.100905525447827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0646464009953198</v>
+        <v>0.064886266825133</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13662358682393</v>
+        <v>0.136924784070522</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/likely_solidarity_by_info_solidarity.xlsx
+++ b/xlsx/country_comparison/likely_solidarity_by_info_solidarity.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0775236584228791</v>
+        <v>0.0772389188473265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587637933184519</v>
+        <v>0.0584654624677067</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0962835235273064</v>
+        <v>0.0960123752269463</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -439,13 +439,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0825944663024482</v>
+        <v>0.0825944663024476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0547133371389904</v>
+        <v>0.05471333713899</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110475595465906</v>
+        <v>0.110475595465905</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,7 +459,7 @@
         <v>0.0495344129192724</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0118154213608932</v>
+        <v>-0.0118154213608933</v>
       </c>
       <c r="D4" t="n">
         <v>0.110884247199438</v>
@@ -476,7 +476,7 @@
         <v>0.0485341087871785</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00960239297963123</v>
+        <v>-0.00960239297963119</v>
       </c>
       <c r="D5" t="n">
         <v>0.106670610553988</v>
@@ -493,7 +493,7 @@
         <v>0.144337371881726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0728607170371897</v>
+        <v>0.0728607170371898</v>
       </c>
       <c r="D6" t="n">
         <v>0.215814026726263</v>
@@ -524,13 +524,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.139448173442151</v>
+        <v>0.139448173442152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0580077114529696</v>
+        <v>0.0580077114529699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.220888635431333</v>
+        <v>0.220888635431334</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.039019983833404</v>
+        <v>0.0390199838334038</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0505289947955081</v>
+        <v>-0.0505289947955082</v>
       </c>
       <c r="D10" t="n">
         <v>0.128568962462316</v>
@@ -578,10 +578,10 @@
         <v>0.0174473111262245</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0152238153386416</v>
+        <v>-0.0152238153386417</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0501184375910905</v>
+        <v>0.0501184375910907</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0793351577642075</v>
+        <v>0.0774230310058336</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0215888870035115</v>
+        <v>0.019466597646933</v>
       </c>
       <c r="D12" t="n">
-        <v>0.137081428524904</v>
+        <v>0.135379464364734</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -609,10 +609,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0572671934345981</v>
+        <v>0.057267193434598</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.010164951476875</v>
+        <v>-0.0101649514768753</v>
       </c>
       <c r="D13" t="n">
         <v>0.124699338346071</v>
@@ -626,10 +626,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100905525447827</v>
+        <v>0.100905525447828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.064886266825133</v>
+        <v>0.0648862668251331</v>
       </c>
       <c r="D14" t="n">
         <v>0.136924784070522</v>
